--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc6.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc6.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é a extensão mínima garantida da plataforma continental, mesmo que o bordo exterior da margem continental não atinja essa distância?</t>
+          <t>Como é definida a extensão da plataforma continental de um Estado costeiro em relação ao seu território terrestre?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Até uma distância de 200 milhas marítimas das linhas de base.</t>
+          <t>Compreende o leito e o subsolo das áreas submarinas além do mar territorial, em toda a extensão do prolongamento natural do território terrestre até o bordo exterior da margem continental, ou até 200 milhas marítimas se o bordo não atingir essa distância, conforme o Art. 76, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quais são os dois critérios limites máximos para a extensão da plataforma continental além das 200 milhas?</t>
+          <t>O que compõe a margem continental segundo a definição legal?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Não deve exceder 350 milhas marítimas das linhas de base ou 100 milhas marítimas da isóbata de 2500 metros.</t>
+          <t>Compreende o prolongamento submerso da massa terrestre, constituído pelo leito e subsolo da plataforma, talude e elevação continental, não abrangendo os grandes fundos oceânicos, conforme o Art. 76, parágrafo 3º.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A margem continental inclui os grandes fundos oceânicos e suas cristas?</t>
+          <t>Como deve ser determinado o pé do talude continental na ausência de prova em contrário?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Não, compreende o prolongamento submerso da massa terrestre (plataforma, talude e elevação), excluindo os grandes fundos oceânicos.</t>
+          <t>Deve ser determinado como o ponto de variação máxima do gradiente na sua base, conforme o Art. 76, parágrafo 4º, alínea 'b'.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Os direitos do Estado costeiro sobre a plataforma continental dependem de ocupação efetiva ou declaração expressa?</t>
+          <t>Quais são os limites máximos absolutos para a extensão da plataforma continental?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Não, são independentes da sua ocupação, real ou fictícia, ou de qualquer declaração expressa.</t>
+          <t>Não deve exceder 350 milhas marítimas das linhas de base ou 100 milhas marítimas da isóbata de 2500 metros, ressalvadas as regras para cristas submarinas, conforme o Art. 76, parágrafos 5º e 6º.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O que define as "espécies sedentárias" incluídas nos recursos naturais da plataforma continental?</t>
+          <t>Qual é a natureza dos direitos do Estado costeiro sobre a plataforma continental?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Organismos que, no período de captura, estão imóveis no leito ou subsolo ou só se movem em constante contato físico com eles.</t>
+          <t>São direitos de soberania exclusivos para efeitos de exploração e aproveitamento dos recursos naturais, independentes de ocupação real ou fictícia, conforme o Art. 77, parágrafos 1º a 3º.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O exercício dos direitos do Estado costeiro sobre a plataforma continental afeta o regime jurídico das águas sobrejacentes?</t>
+          <t>Os direitos do Estado costeiro sobre a plataforma continental afetam o regime das águas sobrejacentes?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Não afeta o regime jurídico das águas sobrejacentes nem do espaço aéreo acima dessas águas.</t>
+          <t>Não, os direitos não afetam o regime jurídico das águas sobrejacentes ou do espaço aéreo acima dessas águas, conforme o Art. 78, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág. 23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Quem detém o direito exclusivo de autorizar e regulamentar perfurações na plataforma continental?</t>
+          <t>O Estado costeiro pode impedir a colocação de cabos ou dutos submarinos na sua plataforma continental?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O Estado costeiro.</t>
+          <t>Não pode impedir, salvo seu direito de tomar medidas razoáveis para exploração, aproveitamento de recursos e controle da poluição, conforme o Art. 79, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O que o Estado costeiro deve fazer em relação ao aproveitamento de recursos não vivos da plataforma além das 200 milhas?</t>
+          <t>Quem possui o direito de autorizar perfurações na plataforma continental?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Deve efetuar pagamentos ou contribuições em espécie anuais à Autoridade Internacional.</t>
+          <t>O Estado costeiro tem o direito exclusivo de autorizar e regulamentar as perfurações, quaisquer que sejam os fins, conforme o Art. 81.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Qual é a taxa máxima de contribuição sobre a produção na plataforma continental além das 200 milhas e quando ela é atingida?</t>
+          <t>Como deve ser feita a delimitação da plataforma continental entre Estados com costas adjacentes ou situadas frente a frente?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A taxa é de 7%, atingida no décimo segundo ano de produção e mantida daí por diante.</t>
+          <t>Deve ser feita por acordo, de conformidade com o direito internacional, a fim de se chegar a uma solução equitativa, conforme o Art. 83, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág. 24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Onde devem ser depositadas as cartas ou listas de coordenadas que definem os limites exteriores da plataforma continental?</t>
+          <t>Qual é a obrigação do Estado costeiro em relação à publicidade das cartas ou listas de coordenadas da plataforma continental?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Junto do Secretário Geral das Nações Unidas e junto do Secretário Geral da Autoridade.</t>
+          <t>O Estado deve dar a devida publicidade a tais documentos, conforme o Art. 84, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O direito do Estado costeiro de escavar túneis no subsolo é limitado pela profundidade das águas?</t>
+          <t>Junto a quais órgãos o Estado costeiro deve depositar as cartas ou listas que indicam os limites exteriores da plataforma continental?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Não, esse direito independe da profundidade das águas no local considerado.</t>
+          <t>Deve depositar junto do Secretário Geral das Nações Unidas e junto do Secretário Geral da Autoridade, conforme o Art. 84, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual é o objetivo da delimitação da plataforma continental entre Estados com costas adjacentes ou frente a frente?</t>
+          <t>As regras da Parte VI prejudicam o direito do Estado costeiro de escavar túneis?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chegar a uma solução equitativa, mediante acordo de conformidade com o direito internacional.</t>
+          <t>Não, o direito de aproveitar o subsolo por meio de escavação de túneis é preservado independentemente da profundidade das águas, conforme o Art. 85.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág. 25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parte VI</t>
+          <t>Parte VI - Plataforma Continental</t>
         </is>
       </c>
     </row>
